--- a/Expenses.xlsx
+++ b/Expenses.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,81 +440,48 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Jouhar</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jouhar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jouhar</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dress</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ajmal</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Entertainment</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
